--- a/מעבדות/תנועה הרמונית/מדידות מאדם.xlsx
+++ b/מעבדות/תנועה הרמונית/מדידות מאדם.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>T1</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>rod length</t>
+  </si>
+  <si>
+    <t>KG</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1667,7 @@
         <v>53.8</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C48" si="9">E4</f>
+        <f t="shared" ref="C29:C47" si="9">E4</f>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D29">
@@ -1685,7 +1688,7 @@
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D29:D48" si="10">K5</f>
+        <f t="shared" ref="D30:D47" si="10">K5</f>
         <v>2.394833625625</v>
       </c>
       <c r="E30">
@@ -2275,25 +2278,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B8</xm:sqref>
+              <xm:sqref>E22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2308,7 +2293,22 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B9</xm:sqref>
+              <xm:sqref>B16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2323,7 +2323,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B10</xm:sqref>
+              <xm:sqref>B15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2338,7 +2338,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B11</xm:sqref>
+              <xm:sqref>B14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2353,7 +2353,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B12</xm:sqref>
+              <xm:sqref>B13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2368,7 +2368,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B13</xm:sqref>
+              <xm:sqref>B12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2383,7 +2383,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B14</xm:sqref>
+              <xm:sqref>B11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2398,7 +2398,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B15</xm:sqref>
+              <xm:sqref>B10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2413,22 +2413,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B21</xm:sqref>
+              <xm:sqref>B9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2443,7 +2428,25 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>E22</xm:sqref>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2457,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3124,6 +3127,9 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
@@ -3139,6 +3145,10 @@
       <c r="I21">
         <v>994</v>
       </c>
+      <c r="J21">
+        <f>I21/1000</f>
+        <v>0.99399999999999999</v>
+      </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -3148,6 +3158,10 @@
       <c r="I22">
         <v>36</v>
       </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J24" si="6">I22/1000</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="M22" t="s">
         <v>33</v>
       </c>
@@ -3161,6 +3175,10 @@
         <f>I24-I22-I21</f>
         <v>2090</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>2.09</v>
+      </c>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -3169,6 +3187,10 @@
       </c>
       <c r="I24">
         <v>3120</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>3.12</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
@@ -3206,55 +3228,55 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30">
-        <f t="shared" ref="B30:C41" si="6">C5</f>
+        <f t="shared" ref="B30:C41" si="7">C5</f>
         <v>23.39</v>
       </c>
       <c r="C30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:D42" si="7">J5</f>
+        <f t="shared" ref="D30:D42" si="8">J5</f>
         <v>2.0764809999999994</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E42" si="8">N5</f>
+        <f t="shared" ref="E30:E42" si="9">N5</f>
         <v>3.1129157821352424E-3</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
       <c r="C31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0836922499999995</v>
       </c>
       <c r="E31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2277641255209462E-3</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.4</v>
       </c>
       <c r="C32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2342775625</v>
       </c>
       <c r="E32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0815060669460198E-3</v>
       </c>
       <c r="K32" t="s">
@@ -3263,19 +3285,19 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47.1</v>
       </c>
       <c r="C33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4861405625000002</v>
       </c>
       <c r="E33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2505533975963024E-3</v>
       </c>
       <c r="K33" t="s">
@@ -3284,19 +3306,19 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42.06</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3508555624999992</v>
       </c>
       <c r="E34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1608758502391595E-3</v>
       </c>
       <c r="K34" t="s">
@@ -3309,15 +3331,15 @@
         <v>17.55</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C42" si="9">D10</f>
+        <f t="shared" ref="C35:C42" si="10">D10</f>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1970650625000001</v>
       </c>
       <c r="E35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0557366567859094E-3</v>
       </c>
       <c r="K35" t="s">
@@ -3326,19 +3348,19 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32.590000000000003</v>
       </c>
       <c r="C36">
+        <f t="shared" si="10"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>2.1418322500000007</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="9"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="7"/>
-        <v>2.1418322500000007</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="8"/>
         <v>3.0465181902186596E-3</v>
       </c>
       <c r="K36" t="s">
@@ -3347,19 +3369,19 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.55</v>
       </c>
       <c r="C37">
+        <f t="shared" si="10"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="8"/>
+        <v>2.0836922499999995</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="9"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="7"/>
-        <v>2.0836922499999995</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="8"/>
         <v>3.0048848702293363E-3</v>
       </c>
       <c r="K37" t="s">
@@ -3372,15 +3394,15 @@
         <v>67.099999999999994</v>
       </c>
       <c r="C38">
+        <f t="shared" si="10"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="8"/>
+        <v>3.1337850624999994</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="9"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="7"/>
-        <v>3.1337850624999994</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="8"/>
         <v>3.9252740741624161E-3</v>
       </c>
       <c r="K38" t="s">
@@ -3389,19 +3411,19 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.4</v>
       </c>
       <c r="C39">
+        <f t="shared" si="10"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="8"/>
+        <v>2.5632009999999998</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="9"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="7"/>
-        <v>2.5632009999999998</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="8"/>
         <v>3.4585552860503287E-3</v>
       </c>
       <c r="K39" t="s">
@@ -3414,15 +3436,15 @@
         <v>62.1</v>
       </c>
       <c r="C40">
+        <f t="shared" si="10"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="8"/>
+        <v>2.9613247225000001</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="9"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="7"/>
-        <v>2.9613247225000001</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="8"/>
         <v>3.5808568874537774E-3</v>
       </c>
       <c r="K40" t="s">
@@ -3431,19 +3453,19 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="C41">
+        <f t="shared" si="10"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="8"/>
+        <v>2.7964200625000002</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="9"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="7"/>
-        <v>2.7964200625000002</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="8"/>
         <v>3.4474316912195893E-3</v>
       </c>
       <c r="K41" t="s">
@@ -3456,15 +3478,15 @@
         <v>52.3</v>
       </c>
       <c r="C42">
+        <f t="shared" si="10"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>2.640625</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="9"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="7"/>
-        <v>2.640625</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="8"/>
         <v>3.5104012116375359E-3</v>
       </c>
       <c r="K42" t="s">
@@ -3572,6 +3594,10 @@
               <xm:f>Sheet3!A23:A23</xm:f>
               <xm:sqref>J23</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet3!A24:A24</xm:f>
+              <xm:sqref>J24</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>

--- a/מעבדות/תנועה הרמונית/מדידות מאדם.xlsx
+++ b/מעבדות/תנועה הרמונית/מדידות מאדם.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>T1</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>rod length</t>
-  </si>
-  <si>
-    <t>KG</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2275,25 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>E22</xm:sqref>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2293,22 +2308,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B21</xm:sqref>
+              <xm:sqref>B9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2323,7 +2323,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B15</xm:sqref>
+              <xm:sqref>B10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2338,7 +2338,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B14</xm:sqref>
+              <xm:sqref>B11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2353,7 +2353,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B13</xm:sqref>
+              <xm:sqref>B12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2368,7 +2368,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B12</xm:sqref>
+              <xm:sqref>B13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2383,7 +2383,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B11</xm:sqref>
+              <xm:sqref>B14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2398,7 +2398,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B10</xm:sqref>
+              <xm:sqref>B15</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2413,7 +2413,22 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B9</xm:sqref>
+              <xm:sqref>B16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:sqref>B21</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2428,25 +2443,7 @@
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:sqref>B2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:sqref>B8</xm:sqref>
+              <xm:sqref>E22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2458,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N43"/>
+  <dimension ref="B3:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,7 +3073,7 @@
         <v>3.4474316912195893E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>52.3</v>
       </c>
@@ -3120,80 +3117,86 @@
         <v>3.5104012116375359E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J20" t="s">
-        <v>35</v>
-      </c>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>34</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21">
-        <v>994</v>
-      </c>
-      <c r="J21">
-        <f>I21/1000</f>
-        <v>0.99399999999999999</v>
-      </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22">
-        <v>36</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ref="J22:J24" si="6">I22/1000</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H22" s="2"/>
       <c r="M22" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H23" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>994</v>
+      </c>
+      <c r="K23">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24">
+        <v>36</v>
+      </c>
+      <c r="K24">
+        <f>J24/1000</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L24">
+        <f>K24/K26</f>
+        <v>1.1538461538461537E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
         <v>31</v>
       </c>
-      <c r="I23">
-        <f>I24-I22-I21</f>
+      <c r="J25">
         <v>2090</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="6"/>
+      <c r="K25">
         <v>2.09</v>
       </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H24" t="s">
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
         <v>17</v>
       </c>
-      <c r="I24">
+      <c r="J26">
         <v>3120</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="6"/>
+      <c r="K26">
+        <f>SUM(K23:K25)</f>
         <v>3.12</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <f>0.004/K26</f>
+        <v>1.2820512820512821E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -3208,7 +3211,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>C4</f>
         <v>24.94</v>
@@ -3226,57 +3229,57 @@
         <v>2.9965582062314719E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30">
-        <f t="shared" ref="B30:C41" si="7">C5</f>
+        <f t="shared" ref="B30:C41" si="6">C5</f>
         <v>23.39</v>
       </c>
       <c r="C30">
+        <f t="shared" si="6"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D42" si="7">J5</f>
+        <v>2.0764809999999994</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E42" si="8">N5</f>
+        <v>3.1129157821352424E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="shared" si="6"/>
+        <v>22.6</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="7"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ref="D30:D42" si="8">J5</f>
-        <v>2.0764809999999994</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ref="E30:E42" si="9">N5</f>
-        <v>3.1129157821352424E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31">
+        <v>2.0836922499999995</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>3.2277641255209462E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="shared" si="6"/>
+        <v>37.4</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="7"/>
-        <v>22.6</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="7"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D31">
+        <v>2.2342775625</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="8"/>
-        <v>2.0836922499999995</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="9"/>
-        <v>3.2277641255209462E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <f t="shared" si="7"/>
-        <v>37.4</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="7"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="8"/>
-        <v>2.2342775625</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="9"/>
         <v>3.0815060669460198E-3</v>
       </c>
       <c r="K32" t="s">
@@ -3285,19 +3288,19 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33">
+        <f t="shared" si="6"/>
+        <v>47.1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="7"/>
-        <v>47.1</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="7"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D33">
+        <v>2.4861405625000002</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="8"/>
-        <v>2.4861405625000002</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="9"/>
         <v>3.2505533975963024E-3</v>
       </c>
       <c r="K33" t="s">
@@ -3306,19 +3309,19 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34">
+        <f t="shared" si="6"/>
+        <v>42.06</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="7"/>
-        <v>42.06</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="7"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D34">
+        <v>2.3508555624999992</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="8"/>
-        <v>2.3508555624999992</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="9"/>
         <v>3.1608758502391595E-3</v>
       </c>
       <c r="K34" t="s">
@@ -3331,15 +3334,15 @@
         <v>17.55</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C42" si="10">D10</f>
+        <f t="shared" ref="C35:C42" si="9">D10</f>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D35">
+        <f t="shared" si="7"/>
+        <v>2.1970650625000001</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="8"/>
-        <v>2.1970650625000001</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="9"/>
         <v>3.0557366567859094E-3</v>
       </c>
       <c r="K35" t="s">
@@ -3348,19 +3351,19 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36">
+        <f t="shared" si="6"/>
+        <v>32.590000000000003</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="9"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="7"/>
-        <v>32.590000000000003</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="10"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D36">
+        <v>2.1418322500000007</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="8"/>
-        <v>2.1418322500000007</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="9"/>
         <v>3.0465181902186596E-3</v>
       </c>
       <c r="K36" t="s">
@@ -3369,19 +3372,19 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37">
+        <f t="shared" si="6"/>
+        <v>27.55</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="9"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="7"/>
-        <v>27.55</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="10"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D37">
+        <v>2.0836922499999995</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="8"/>
-        <v>2.0836922499999995</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="9"/>
         <v>3.0048848702293363E-3</v>
       </c>
       <c r="K37" t="s">
@@ -3394,15 +3397,15 @@
         <v>67.099999999999994</v>
       </c>
       <c r="C38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D38">
+        <f t="shared" si="7"/>
+        <v>3.1337850624999994</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="8"/>
-        <v>3.1337850624999994</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="9"/>
         <v>3.9252740741624161E-3</v>
       </c>
       <c r="K38" t="s">
@@ -3411,19 +3414,19 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39">
+        <f t="shared" si="6"/>
+        <v>12.4</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="9"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="7"/>
-        <v>12.4</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="10"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D39">
+        <v>2.5632009999999998</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="8"/>
-        <v>2.5632009999999998</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="9"/>
         <v>3.4585552860503287E-3</v>
       </c>
       <c r="K39" t="s">
@@ -3436,15 +3439,15 @@
         <v>62.1</v>
       </c>
       <c r="C40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D40">
+        <f t="shared" si="7"/>
+        <v>2.9613247225000001</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="8"/>
-        <v>2.9613247225000001</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="9"/>
         <v>3.5808568874537774E-3</v>
       </c>
       <c r="K40" t="s">
@@ -3453,19 +3456,19 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="9"/>
+        <v>2.8867513000000001E-2</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="10"/>
-        <v>2.8867513000000001E-2</v>
-      </c>
-      <c r="D41">
+        <v>2.7964200625000002</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="8"/>
-        <v>2.7964200625000002</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="9"/>
         <v>3.4474316912195893E-3</v>
       </c>
       <c r="K41" t="s">
@@ -3478,15 +3481,15 @@
         <v>52.3</v>
       </c>
       <c r="C42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.8867513000000001E-2</v>
       </c>
       <c r="D42">
+        <f t="shared" si="7"/>
+        <v>2.640625</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="8"/>
-        <v>2.640625</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="9"/>
         <v>3.5104012116375359E-3</v>
       </c>
       <c r="K42" t="s">
@@ -3586,18 +3589,6 @@
               <xm:f>Sheet3!A21:A21</xm:f>
               <xm:sqref>J21</xm:sqref>
             </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet3!A22:A22</xm:f>
-              <xm:sqref>J22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet3!A23:A23</xm:f>
-              <xm:sqref>J23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet3!A24:A24</xm:f>
-              <xm:sqref>J24</xm:sqref>
-            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
